--- a/sputnik/personal/uch/uch138.xlsx
+++ b/sputnik/personal/uch/uch138.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Начислена оплата за аренду земельного участка за 2019</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,6 +202,7 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,7 +513,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C3:C12"/>
+      <selection activeCell="C13" sqref="C13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,22 +661,28 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13">
+        <v>11682</v>
+      </c>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch138.xlsx
+++ b/sputnik/personal/uch/uch138.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>оплата за аренду земельного участка за 2016</t>
+  </si>
+  <si>
+    <t>оплата ЗОП за 2016</t>
+  </si>
+  <si>
+    <t>оплата членского взноса за 2016</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,11 +177,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +225,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -510,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D15"/>
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,16 +696,40 @@
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13">
+        <v>495</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="9">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44151</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9">
+        <v>8109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch138.xlsx
+++ b/sputnik/personal/uch/uch138.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Оплачено</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>оплата членского взноса за 2016</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена оплата за аренду земельного участка за 2021</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -730,6 +736,54 @@
       <c r="D16" s="9">
         <v>8109</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="13">
+        <v>11997</v>
+      </c>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44197</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="13">
+        <v>443.88</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
